--- a/simulation_data/iterative_algorithm/i_error_level_9_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_9_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.18307865846424</v>
+        <v>90.37267894116276</v>
       </c>
       <c r="D2" t="n">
-        <v>12.16032979174933</v>
+        <v>9.851137200736268</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.57762024379079</v>
+        <v>87.83334175839627</v>
       </c>
       <c r="D3" t="n">
-        <v>10.88763816181954</v>
+        <v>9.966157988488566</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.11077410146541</v>
+        <v>88.50970846959427</v>
       </c>
       <c r="D4" t="n">
-        <v>11.31742840121194</v>
+        <v>11.00078619035041</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.75599103108425</v>
+        <v>87.96509439906941</v>
       </c>
       <c r="D5" t="n">
-        <v>10.91393130567926</v>
+        <v>9.470327571314694</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.84761488435495</v>
+        <v>86.25069388249005</v>
       </c>
       <c r="D6" t="n">
-        <v>10.97973522422429</v>
+        <v>10.5671586956881</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.36405200527071</v>
+        <v>84.13509996033376</v>
       </c>
       <c r="D7" t="n">
-        <v>10.55595535953455</v>
+        <v>10.23354590218553</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.53823353888608</v>
+        <v>84.10551641238837</v>
       </c>
       <c r="D8" t="n">
-        <v>9.087111135083976</v>
+        <v>9.492554480484692</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.41568812907084</v>
+        <v>81.50180075686426</v>
       </c>
       <c r="D9" t="n">
-        <v>10.05527939540216</v>
+        <v>10.73801839345286</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.01269131105171</v>
+        <v>81.82598932554799</v>
       </c>
       <c r="D10" t="n">
-        <v>10.5489391256391</v>
+        <v>9.356590485710926</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.3075966454922</v>
+        <v>80.0932224765822</v>
       </c>
       <c r="D11" t="n">
-        <v>9.837752179045804</v>
+        <v>10.92390741479051</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.99969981450884</v>
+        <v>80.40991446558583</v>
       </c>
       <c r="D12" t="n">
-        <v>11.06169168458241</v>
+        <v>9.907596025950198</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.69850071978897</v>
+        <v>77.33988176193543</v>
       </c>
       <c r="D13" t="n">
-        <v>9.971425470113816</v>
+        <v>9.627995993189542</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.51992023328292</v>
+        <v>78.13930331610916</v>
       </c>
       <c r="D14" t="n">
-        <v>10.3276453040404</v>
+        <v>10.44467403546593</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.27393476480823</v>
+        <v>76.59708794875</v>
       </c>
       <c r="D15" t="n">
-        <v>9.520310892931585</v>
+        <v>11.86343669853774</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.13089874108339</v>
+        <v>77.22585627053213</v>
       </c>
       <c r="D16" t="n">
-        <v>10.30810657703768</v>
+        <v>11.10709136662955</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.03932528885872</v>
+        <v>74.42891447110581</v>
       </c>
       <c r="D17" t="n">
-        <v>10.42320925781761</v>
+        <v>10.2186003905426</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.06526830218996</v>
+        <v>74.54399640595119</v>
       </c>
       <c r="D18" t="n">
-        <v>11.27781038661432</v>
+        <v>10.85091773071069</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.54965999602292</v>
+        <v>72.68874998777208</v>
       </c>
       <c r="D19" t="n">
-        <v>11.5678676166846</v>
+        <v>11.15541723295796</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.46206843933787</v>
+        <v>71.1094958603049</v>
       </c>
       <c r="D20" t="n">
-        <v>10.57620108825772</v>
+        <v>9.469871531985117</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.10187630546169</v>
+        <v>72.01958496520268</v>
       </c>
       <c r="D21" t="n">
-        <v>9.899941749716552</v>
+        <v>11.28863935429935</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.14424955709947</v>
+        <v>69.85882425894243</v>
       </c>
       <c r="D22" t="n">
-        <v>10.69048346288856</v>
+        <v>10.63267969767145</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.36447152669118</v>
+        <v>68.90208349399033</v>
       </c>
       <c r="D23" t="n">
-        <v>9.562406543910418</v>
+        <v>8.26315806152027</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.1641677505261</v>
+        <v>67.71826206875735</v>
       </c>
       <c r="D24" t="n">
-        <v>11.14822834412348</v>
+        <v>11.59318240691161</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.78392548551953</v>
+        <v>67.34862566759476</v>
       </c>
       <c r="D25" t="n">
-        <v>12.03275254210757</v>
+        <v>10.71426179472481</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.58044759830906</v>
+        <v>66.07668985975869</v>
       </c>
       <c r="D26" t="n">
-        <v>9.650566662421676</v>
+        <v>10.94065196180162</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.75813869480842</v>
+        <v>63.69953581491195</v>
       </c>
       <c r="D27" t="n">
-        <v>11.33158404872893</v>
+        <v>10.86533906799985</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.58068945005294</v>
+        <v>64.61586994523599</v>
       </c>
       <c r="D28" t="n">
-        <v>11.84693188975763</v>
+        <v>9.322010698298483</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.94367629817491</v>
+        <v>61.90674228213064</v>
       </c>
       <c r="D29" t="n">
-        <v>10.74764356054687</v>
+        <v>9.482978455079659</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.28438381362983</v>
+        <v>64.85848617258374</v>
       </c>
       <c r="D30" t="n">
-        <v>9.553633510764866</v>
+        <v>10.53558998758663</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.94169007827953</v>
+        <v>60.79370524303278</v>
       </c>
       <c r="D31" t="n">
-        <v>8.914254908373396</v>
+        <v>11.03925048776417</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.70579170267298</v>
+        <v>59.1366297898885</v>
       </c>
       <c r="D32" t="n">
-        <v>10.19980772336216</v>
+        <v>11.1041805586778</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.65386834784503</v>
+        <v>58.77900954164044</v>
       </c>
       <c r="D33" t="n">
-        <v>10.52261430524617</v>
+        <v>7.817696465415146</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.58413842555575</v>
+        <v>57.63092250596653</v>
       </c>
       <c r="D34" t="n">
-        <v>10.70939494736461</v>
+        <v>10.77850162095313</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.50265470797893</v>
+        <v>53.80451860171701</v>
       </c>
       <c r="D35" t="n">
-        <v>11.1443415283352</v>
+        <v>9.691753323643029</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.0925216930811</v>
+        <v>57.4277778185349</v>
       </c>
       <c r="D36" t="n">
-        <v>11.126906431765</v>
+        <v>9.784375813110223</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.91315659539448</v>
+        <v>56.5001074695917</v>
       </c>
       <c r="D37" t="n">
-        <v>11.17314385118783</v>
+        <v>9.976617712676363</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.02231546262496</v>
+        <v>53.35730031408278</v>
       </c>
       <c r="D38" t="n">
-        <v>11.57227797244817</v>
+        <v>10.67157032758958</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.37216165945537</v>
+        <v>53.31301313823074</v>
       </c>
       <c r="D39" t="n">
-        <v>10.6061194557111</v>
+        <v>11.19738877554832</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.22533243026423</v>
+        <v>52.49515206185339</v>
       </c>
       <c r="D40" t="n">
-        <v>10.25547689449783</v>
+        <v>10.99145842289811</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.12845532540558</v>
+        <v>50.43225928414832</v>
       </c>
       <c r="D41" t="n">
-        <v>10.86620697557619</v>
+        <v>11.14474393173129</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.6590402529377</v>
+        <v>50.39846284236846</v>
       </c>
       <c r="D42" t="n">
-        <v>11.30937967657115</v>
+        <v>9.684980657348307</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.14722417058621</v>
+        <v>48.76149820479769</v>
       </c>
       <c r="D43" t="n">
-        <v>10.79202804576786</v>
+        <v>10.43658509474103</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.32479363975978</v>
+        <v>47.64643235729197</v>
       </c>
       <c r="D44" t="n">
-        <v>11.45423221766655</v>
+        <v>9.962177796637103</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.35544401674484</v>
+        <v>47.98254395847637</v>
       </c>
       <c r="D45" t="n">
-        <v>11.92876512267469</v>
+        <v>11.37253375109182</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.46565409528385</v>
+        <v>46.5758568163296</v>
       </c>
       <c r="D46" t="n">
-        <v>9.194823599007016</v>
+        <v>11.31528241966533</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.77651506862028</v>
+        <v>45.2367897965303</v>
       </c>
       <c r="D47" t="n">
-        <v>11.06780712701705</v>
+        <v>10.48922930461274</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.99634486763972</v>
+        <v>43.0764741390755</v>
       </c>
       <c r="D48" t="n">
-        <v>10.01349494414765</v>
+        <v>10.08399633889582</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.10597724486252</v>
+        <v>43.53545453884894</v>
       </c>
       <c r="D49" t="n">
-        <v>12.16362754368909</v>
+        <v>9.1070417273699</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.28636207286823</v>
+        <v>40.97836198435054</v>
       </c>
       <c r="D50" t="n">
-        <v>11.33823587648436</v>
+        <v>9.484054714461232</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.16250289784929</v>
+        <v>43.66253762442959</v>
       </c>
       <c r="D51" t="n">
-        <v>11.27339689502506</v>
+        <v>10.16226383853542</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.210245054393</v>
+        <v>40.55473540264703</v>
       </c>
       <c r="D52" t="n">
-        <v>10.31929571888632</v>
+        <v>9.431746146542668</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.28050980004481</v>
+        <v>37.98516152286508</v>
       </c>
       <c r="D53" t="n">
-        <v>10.16618128893364</v>
+        <v>10.62452548567564</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.43287469465989</v>
+        <v>38.78798759945866</v>
       </c>
       <c r="D54" t="n">
-        <v>10.95126049148774</v>
+        <v>10.47526231399329</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.99724502960554</v>
+        <v>36.2008978591627</v>
       </c>
       <c r="D55" t="n">
-        <v>10.38214702689745</v>
+        <v>10.13115897472503</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.45516830615183</v>
+        <v>34.97096501248902</v>
       </c>
       <c r="D56" t="n">
-        <v>10.76525654494711</v>
+        <v>10.50015329035848</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.63610394105384</v>
+        <v>35.13051393764759</v>
       </c>
       <c r="D57" t="n">
-        <v>10.98438050296987</v>
+        <v>9.14360551768074</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.81128260137931</v>
+        <v>33.5921533190154</v>
       </c>
       <c r="D58" t="n">
-        <v>10.22816394834478</v>
+        <v>11.17878008331118</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.4035303490964</v>
+        <v>32.70284181362742</v>
       </c>
       <c r="D59" t="n">
-        <v>9.996972088934552</v>
+        <v>9.787287830650211</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.91111289141748</v>
+        <v>31.99017333523701</v>
       </c>
       <c r="D60" t="n">
-        <v>11.13224153203628</v>
+        <v>10.42230895960627</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.7206360149297</v>
+        <v>31.61167945622429</v>
       </c>
       <c r="D61" t="n">
-        <v>10.74333100500701</v>
+        <v>10.63252654713459</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.92522463018967</v>
+        <v>29.18342849051815</v>
       </c>
       <c r="D62" t="n">
-        <v>8.984860817478969</v>
+        <v>12.66988134588448</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.42276163628473</v>
+        <v>27.36807843038935</v>
       </c>
       <c r="D63" t="n">
-        <v>10.93225534340901</v>
+        <v>11.02688739664806</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.82232980007754</v>
+        <v>27.88167601418778</v>
       </c>
       <c r="D64" t="n">
-        <v>10.10831113787706</v>
+        <v>10.72185524301136</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.61710986214046</v>
+        <v>27.50230747611385</v>
       </c>
       <c r="D65" t="n">
-        <v>11.20142748768622</v>
+        <v>10.68467023959087</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.01925743346297</v>
+        <v>24.85874486140379</v>
       </c>
       <c r="D66" t="n">
-        <v>9.676970318956668</v>
+        <v>10.86136101428241</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.44540576314851</v>
+        <v>23.48371165949479</v>
       </c>
       <c r="D67" t="n">
-        <v>11.69182960422961</v>
+        <v>10.591524542756</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.37505468642101</v>
+        <v>22.93934969020685</v>
       </c>
       <c r="D68" t="n">
-        <v>10.34046308181588</v>
+        <v>10.86724077989484</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.10239294069344</v>
+        <v>23.21673302530787</v>
       </c>
       <c r="D69" t="n">
-        <v>12.01291477970926</v>
+        <v>11.21624797849751</v>
       </c>
     </row>
   </sheetData>
